--- a/NLP/results/Bob Smith__scoresheet.xlsx
+++ b/NLP/results/Bob Smith__scoresheet.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-11 15:39:06</t>
+          <t>2025-11-18 12:29:46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>54.1%</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>The cell membrane is a selectively permeable barrier that regulates the passage of substances into and out of the cell, controlling what enters and exits to maintain cellular homeostasis.</t>
         </is>
       </c>
     </row>
